--- a/hello.xlsx
+++ b/hello.xlsx
@@ -3,11 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="config" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,19 +15,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <charset val="128"/>
-      <family val="3"/>
+      <family val="2"/>
       <sz val="6"/>
       <scheme val="minor"/>
     </font>
@@ -51,16 +53,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -133,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -143,44 +154,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -207,14 +218,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -241,6 +270,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -252,166 +299,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -421,78 +444,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Z6"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="10.21875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8.88671875" customWidth="1" style="1" min="2" max="4"/>
+    <col width="11.09765625" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="Z1" t="n">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>日付</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>終値</t>
+          <t>株価</t>
         </is>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6">
-      <c r="C6" t="n">
-        <v>28608.59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
+    <row r="3">
+      <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>値</t>
+          <t>2021-5-11</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="4">
+      <c r="B4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
         <is>
-          <t>最終行</t>
+          <t>2021-05-12</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>14</v>
+      <c r="C5" t="n">
+        <v>28608.59</v>
       </c>
     </row>
   </sheetData>
